--- a/MARVIN_BRYANT.xlsx
+++ b/MARVIN_BRYANT.xlsx
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Breed</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -104,13 +107,10 @@
     <t xml:space="preserve">SR 1200, 27848 MATTHEWS LANE, FARMVILLE, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">SHP-North</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRYANT, MARVIN W.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252-717-6733</t>
+    <t xml:space="preserve">HP-East Commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRYANT, MARVIN W</t>
   </si>
   <si>
     <t xml:space="preserve">SPG240</t>
@@ -119,73 +119,73 @@
     <t xml:space="preserve">0.31180555555555556</t>
   </si>
   <si>
-    <t xml:space="preserve">BNJ SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6401 WOODBRIDGE RD, STANTONSBURG, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36319444444444443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTALIA SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">491 INSCOE RD, CASTALIA, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:48am</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G2 Sow Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:14AM</t>
+    <t xml:space="preserve">ALUM SPRINGS SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252-522-5795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11440 NC HWY 55 W, DOVER, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28402777777777777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MWF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 8537 - Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1915 WJ DUKE SERVICE RD, JACKSON, VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4375</t>
   </si>
   <si>
     <t xml:space="preserve">M&amp;M SOW</t>
   </si>
   <si>
+    <t xml:space="preserve">252-746-2433</t>
+  </si>
+  <si>
     <t xml:space="preserve">5597 ORMONDSVILLE RD, AYDEN, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4604166666666667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROSEWOOD SWINE SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252-448-3841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2115 NC HWY 41 E, TRENTON, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35833333333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOSS FARMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2200 DEER VIEW TRAIL, SOUTH BOSTON, VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPG 240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHITE RIDGE FARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">807 ROOKER DAIRY RD, NORLINA, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WILKERSON FARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1055 WILKERSON TRIAL, ALTON, VA</t>
+    <t xml:space="preserve">0.33402777777777781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oakwood Sow Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252-244-2217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1450 1500 NELSON RD, VANCEBORO, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29930555555555555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pine Ridge Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252-747-8373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">822 ORMOND FARM RD, HOOKERTON, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30208333333333331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMMITT SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3627 WHITEHURST STATION, ROBERSONVILLE, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22916666666666666</t>
   </si>
 </sst>
 </file>
@@ -522,34 +522,35 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="14.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="18.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="21.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="43.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="12.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="17.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="18.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="16.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="7.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="6.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="9.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="9.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="9.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="11.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="10.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="8.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="10.71" hidden="0" customWidth="1"/>
     <col min="20" max="20" width="8.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="10.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="8.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="10.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="5.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="19.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="8.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="10.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="5.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="11.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="19.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -631,534 +632,430 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>7094</v>
+        <v>7093</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
         <v>2003</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
         <v>32</v>
       </c>
+      <c r="J2"/>
       <c r="K2" t="s">
         <v>33</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2" t="n">
-        <v>70</v>
-      </c>
-      <c r="O2"/>
+      <c r="N2"/>
+      <c r="O2" t="n">
+        <v>60</v>
+      </c>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2" t="n">
-        <v>25</v>
-      </c>
-      <c r="S2"/>
+      <c r="R2"/>
+      <c r="S2" t="n">
+        <v>60</v>
+      </c>
       <c r="T2"/>
       <c r="U2"/>
-      <c r="V2" t="n">
-        <v>90</v>
-      </c>
+      <c r="V2"/>
       <c r="W2" t="n">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="X2" t="n">
-        <v>2.37179487179487</v>
-      </c>
-      <c r="Y2" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.91176470588235</v>
+      </c>
+      <c r="Z2" t="s">
         <v>34</v>
       </c>
-      <c r="Z2"/>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="n">
         <v>7094</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="n">
-        <v>62401</v>
-      </c>
-      <c r="F3"/>
+        <v>3957</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
         <v>32</v>
       </c>
+      <c r="J3"/>
       <c r="K3" t="s">
         <v>33</v>
       </c>
       <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3" t="n">
-        <v>50</v>
-      </c>
+      <c r="M3" t="n">
+        <v>110</v>
+      </c>
+      <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3" t="n">
-        <v>30</v>
-      </c>
+      <c r="Q3" t="n">
+        <v>50</v>
+      </c>
+      <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3" t="n">
-        <v>115</v>
-      </c>
-      <c r="W3" t="n">
-        <v>195</v>
-      </c>
+      <c r="U3" t="n">
+        <v>90</v>
+      </c>
+      <c r="V3"/>
+      <c r="W3"/>
       <c r="X3" t="n">
-        <v>2.1195652173913</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3"/>
+        <v>250</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.10084033613445</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B4" t="n">
-        <v>7094</v>
+        <v>7093</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>72411</v>
+        <v>8537</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
         <v>32</v>
       </c>
+      <c r="J4"/>
       <c r="K4" t="s">
         <v>33</v>
       </c>
       <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4" t="n">
-        <v>70</v>
-      </c>
+      <c r="M4" t="n">
+        <v>270</v>
+      </c>
+      <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4" t="n">
-        <v>25</v>
-      </c>
+      <c r="Q4" t="n">
+        <v>100</v>
+      </c>
+      <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4" t="n">
-        <v>115</v>
-      </c>
-      <c r="W4" t="n">
-        <v>210</v>
-      </c>
+      <c r="U4" t="n">
+        <v>80</v>
+      </c>
+      <c r="V4"/>
+      <c r="W4"/>
       <c r="X4" t="n">
-        <v>2.41379310344828</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4"/>
+        <v>450</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.35602094240838</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
         <v>7094</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" t="n">
-        <v>88571</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5"/>
+        <v>62421</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
         <v>32</v>
       </c>
+      <c r="J5"/>
       <c r="K5" t="s">
         <v>33</v>
       </c>
       <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5" t="n">
-        <v>55</v>
-      </c>
+      <c r="M5" t="n">
+        <v>40</v>
+      </c>
+      <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5" t="n">
-        <v>25</v>
-      </c>
+      <c r="Q5" t="n">
+        <v>40</v>
+      </c>
+      <c r="R5"/>
       <c r="S5"/>
       <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5" t="n">
-        <v>120</v>
-      </c>
-      <c r="W5" t="n">
-        <v>200</v>
-      </c>
+      <c r="U5" t="n">
+        <v>80</v>
+      </c>
+      <c r="V5"/>
+      <c r="W5"/>
       <c r="X5" t="n">
-        <v>2.17391304347826</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z5"/>
+        <v>160</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.13333333333333</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="n">
         <v>7094</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>62421</v>
-      </c>
-      <c r="F6"/>
+        <v>6234</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
         <v>32</v>
       </c>
+      <c r="J6"/>
       <c r="K6" t="s">
         <v>33</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
-      <c r="N6" t="n">
-        <v>25</v>
-      </c>
-      <c r="O6"/>
+      <c r="N6"/>
+      <c r="O6" t="n">
+        <v>50</v>
+      </c>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6" t="n">
-        <v>30</v>
-      </c>
-      <c r="S6"/>
+      <c r="R6"/>
+      <c r="S6" t="n">
+        <v>160</v>
+      </c>
       <c r="T6"/>
       <c r="U6"/>
-      <c r="V6" t="n">
-        <v>110</v>
-      </c>
+      <c r="V6"/>
       <c r="W6" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="X6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z6"/>
+        <v>370</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.7007299270073</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B7" t="n">
         <v>7094</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n">
-        <v>68121</v>
+        <v>62431</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
         <v>32</v>
       </c>
+      <c r="J7"/>
       <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="L7" t="n">
-        <v>90</v>
-      </c>
-      <c r="M7"/>
+      <c r="L7"/>
+      <c r="M7" t="n">
+        <v>70</v>
+      </c>
       <c r="N7"/>
       <c r="O7"/>
-      <c r="P7" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q7"/>
+      <c r="P7"/>
+      <c r="Q7" t="n">
+        <v>50</v>
+      </c>
       <c r="R7"/>
       <c r="S7"/>
-      <c r="T7" t="n">
-        <v>105</v>
-      </c>
-      <c r="U7"/>
+      <c r="T7"/>
+      <c r="U7" t="n">
+        <v>65</v>
+      </c>
       <c r="V7"/>
-      <c r="W7" t="n">
-        <v>220</v>
-      </c>
+      <c r="W7"/>
       <c r="X7" t="n">
-        <v>2.24489795918367</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z7"/>
+        <v>185</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.76190476190476</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>7069</v>
+        <v>7093</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
-        <v>82231</v>
+        <v>88581</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
         <v>32</v>
       </c>
+      <c r="J8"/>
       <c r="K8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" t="n">
-        <v>60</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
-      <c r="O8"/>
+      <c r="O8" t="n">
+        <v>100</v>
+      </c>
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8" t="n">
-        <v>50</v>
-      </c>
+      <c r="S8" t="n">
+        <v>30</v>
+      </c>
+      <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8" t="n">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="X8" t="n">
-        <v>2.61904761904762</v>
-      </c>
-      <c r="Y8"/>
-      <c r="Z8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7069</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" t="n">
-        <v>88541</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" t="n">
-        <v>40</v>
-      </c>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9" t="n">
-        <v>45</v>
-      </c>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9" t="n">
-        <v>85</v>
-      </c>
-      <c r="X9" t="n">
-        <v>2.83333333333333</v>
-      </c>
-      <c r="Y9"/>
-      <c r="Z9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7069</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="n">
-        <v>88241</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.25352112676056</v>
+      </c>
+      <c r="Z8" t="s">
         <v>57</v>
       </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" t="n">
-        <v>60</v>
-      </c>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10" t="n">
-        <v>60</v>
-      </c>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10" t="n">
-        <v>120</v>
-      </c>
-      <c r="X10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y10"/>
-      <c r="Z10"/>
+      <c r="AA8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
